--- a/biology/Zoologie/Colossosauria/Colossosauria.xlsx
+++ b/biology/Zoologie/Colossosauria/Colossosauria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Colossosauria sont un clade de sauropodes titanosaures de la fin du Crétacé inférieur au Crétacé supérieur d'Amérique du Sud. Le groupe a été initialement nommé par Bernardo Javier González Riga (d) et al. en 2019[2] et défini comme le « clade le plus complet contenant Mendozasaurus neguyelap, mais pas Saltasaurus loricatus ou Epachthosaurus sciuttoi ». Le clade contient différents taxons en fonction de l'analyse phylogénétique utilisée, dans l'article de définition, les seuls sous-groupes étaient Rinconsauria et Lognkosauria, mais des phylogénies alternatives publiées précédemment avaient également inclus divers titanosaures similaires tels que Aeolosaurus, Bonitasaura, Drusilasaura, Overosaurus et Quetecsaurus.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Colossosauria sont un clade de sauropodes titanosaures de la fin du Crétacé inférieur au Crétacé supérieur d'Amérique du Sud. Le groupe a été initialement nommé par Bernardo Javier González Riga (d) et al. en 2019 et défini comme le « clade le plus complet contenant Mendozasaurus neguyelap, mais pas Saltasaurus loricatus ou Epachthosaurus sciuttoi ». Le clade contient différents taxons en fonction de l'analyse phylogénétique utilisée, dans l'article de définition, les seuls sous-groupes étaient Rinconsauria et Lognkosauria, mais des phylogénies alternatives publiées précédemment avaient également inclus divers titanosaures similaires tels que Aeolosaurus, Bonitasaura, Drusilasaura, Overosaurus et Quetecsaurus.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'analyse phylogénétique de González-Riga et al. (2019) a placé Colossosauria comme taxons frères d'Epachthosaurus, Pitekunsaurus et d'un clade plus grand comprenant les Saltasauridae.
 </t>
